--- a/docs/excel/TPayList.xlsx
+++ b/docs/excel/TPayList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>IsWhiteView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +240,29 @@
       </rPr>
       <t>道具</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppleProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果商店商品Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌商店商品Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,23 +693,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.69921875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="4"/>
-    <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="10.69921875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -698,19 +719,25 @@
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -718,1057 +745,1359 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>801</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7">
         <v>802</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7">
         <v>803</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7">
         <v>804</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7">
         <v>805</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7">
         <v>806</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>821</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>822</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>823</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7">
         <v>824</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>825</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>826</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="7">
         <v>101</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>102</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="7">
         <v>103</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="7">
         <v>827</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="7">
         <v>828</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="D21" s="7">
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="7">
         <v>104</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="7">
         <v>105</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1798,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayList.xlsx
+++ b/docs/excel/TPayList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>谷歌商店商品Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_poker_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +700,7 @@
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -804,7 +808,9 @@
         <v>801</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>

--- a/docs/excel/TPayList.xlsx
+++ b/docs/excel/TPayList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -243,30 +243,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppleProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果商店商品Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌商店商品Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_poker_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,25 +674,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.69921875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="10.69921875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="11.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="4"/>
+    <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -723,25 +698,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -749,1361 +718,1057 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>53</v>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>801</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7">
         <v>802</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7">
         <v>803</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7">
         <v>804</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7">
         <v>805</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7">
         <v>806</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>821</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>822</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>823</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7">
         <v>824</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>825</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>826</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="7">
         <v>101</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>102</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="7">
         <v>103</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="7">
         <v>827</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="C20" s="7">
         <v>4</v>
       </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="7">
         <v>828</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="C21" s="7">
         <v>4</v>
       </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="7">
         <v>104</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="7">
         <v>105</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TPayList.xlsx
+++ b/docs/excel/TPayList.xlsx
@@ -112,13 +112,7 @@
     <t>mall_zs_6</t>
   </si>
   <si>
-    <t>vip_3</t>
-  </si>
-  <si>
     <t>vip_2</t>
-  </si>
-  <si>
-    <t>vip_1</t>
   </si>
   <si>
     <t>monthCard1</t>
@@ -244,6 +238,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +679,7 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,22 +694,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
@@ -740,19 +742,19 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -780,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>802</v>
+        <v>602</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -800,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -820,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>804</v>
+        <v>604</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -840,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>805</v>
+        <v>605</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -860,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>806</v>
+        <v>606</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -880,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>821</v>
+        <v>607</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -900,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>822</v>
+        <v>608</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -920,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>823</v>
+        <v>609</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -940,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>824</v>
+        <v>610</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -960,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -980,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>826</v>
+        <v>612</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -1000,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>101</v>
+        <v>613</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -1009,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>102</v>
+        <v>614</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -1040,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>103</v>
+        <v>615</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1049,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -1089,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1109,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -1129,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -1798,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayList.xlsx
+++ b/docs/excel/TPayList.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>613</v>
+        <v>101</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -1022,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>614</v>
+        <v>102</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>615</v>
+        <v>103</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
